--- a/Aim1/figures/Table1_Additional_Features.xlsx
+++ b/Aim1/figures/Table1_Additional_Features.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6270a8f4b8f62cae/mcook/aspen-fire/Aim1/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="8_{E009F3F8-6E14-E546-AE0E-C8E493984BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69CBCD39-E91F-FF40-9166-0C42A2013A01}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="8_{E009F3F8-6E14-E546-AE0E-C8E493984BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C78F3A-29EC-BE4A-B6BF-419784716DC9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{D33BB963-CF9E-8141-9A59-4556936D6419}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{D33BB963-CF9E-8141-9A59-4556936D6419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,23 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Chlorophyll Red-edge Index</t>
-  </si>
-  <si>
-    <t>ChlRE</t>
-  </si>
-  <si>
     <t>Inverted Red-edge Chlorophyll Index</t>
   </si>
   <si>
@@ -65,36 +57,12 @@
     <t xml:space="preserve">Specific Leaf Area Vegetation Index </t>
   </si>
   <si>
-    <t>Normalised Difference Red-edge Index</t>
-  </si>
-  <si>
-    <t>(B7 - B4) / (B5 / B6)</t>
-  </si>
-  <si>
-    <t>(B7 / B5) - 1</t>
-  </si>
-  <si>
-    <t>B8 / (B4+ B11)</t>
-  </si>
-  <si>
-    <t>B8 - 0.08 * (NDVI * 0.1)</t>
-  </si>
-  <si>
     <t>Gitelson et al. (2003,2006)</t>
   </si>
   <si>
     <t>Frampton et al (2013)</t>
   </si>
   <si>
-    <t>NDRE</t>
-  </si>
-  <si>
-    <t>Normalised Difference Water Index</t>
-  </si>
-  <si>
-    <t>NDMI</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -203,9 +171,6 @@
     <t>Summer, Winter</t>
   </si>
   <si>
-    <t>(B8 - B12) / (B8 + B12)</t>
-  </si>
-  <si>
     <t>GLCM 5x5</t>
   </si>
   <si>
@@ -227,15 +192,6 @@
     <t>5.5cm</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-Band Vertical-Vertical </t>
-  </si>
-  <si>
-    <t>C-Band Vertical-Horizontal</t>
-  </si>
-  <si>
     <t>Abbrev.</t>
   </si>
   <si>
@@ -258,6 +214,60 @@
   </si>
   <si>
     <t xml:space="preserve">GLCM Contrast </t>
+  </si>
+  <si>
+    <t>Chlorophyll Index Red-edge</t>
+  </si>
+  <si>
+    <t>CIRE</t>
+  </si>
+  <si>
+    <t>NDVI705</t>
+  </si>
+  <si>
+    <t>MNDWI</t>
+  </si>
+  <si>
+    <t>(B8 / B5) - 1</t>
+  </si>
+  <si>
+    <t>B8 / (B4+ B12)</t>
+  </si>
+  <si>
+    <t>(B8 - B4) / (B5 / B6)</t>
+  </si>
+  <si>
+    <t>Red-edge Normalized Difference Vegetation Index</t>
+  </si>
+  <si>
+    <t>Modified Normalized Difference Water Index</t>
+  </si>
+  <si>
+    <t>(B6 - B5) / (B6 + B5)</t>
+  </si>
+  <si>
+    <t>(B3 - B11) / (B3 + B11)</t>
+  </si>
+  <si>
+    <t>Modified Chlorophyll Absorption in Reflectance Index</t>
+  </si>
+  <si>
+    <t>MCARI</t>
+  </si>
+  <si>
+    <t>((B5 - B4) - 0.2 * (B5 - B3)) * (B5 / B4)</t>
+  </si>
+  <si>
+    <t>Satellite/Sensor</t>
+  </si>
+  <si>
+    <t>Sentinel-1 GRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-Band Vertical-Vertical Polarisation </t>
+  </si>
+  <si>
+    <t>C-Band Vertical-Horizontal Polarization</t>
   </si>
 </sst>
 </file>
@@ -335,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -376,15 +386,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -405,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -433,6 +434,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -442,25 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,14 +475,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -631,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,27 +772,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452C1BDD-B885-D249-AAA5-C72304BEEEBD}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="13.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="15.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -809,515 +799,553 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="F14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="8"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="8"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="9"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AFAC0-8994-8D47-A8D9-24432B6CA267}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>